--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC09BBB-16ED-453D-A239-27E9DA5E0A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>spotify link</t>
   </si>
@@ -201,9 +182,6 @@
   </si>
   <si>
     <t>https://open.spotify.com/track/7elNdCh77V6jMoJiuay0Gw?si=028c3a44fce94fb1</t>
-  </si>
-  <si>
-    <t>https://open.spotify:track/35koAE9ZfGBXoBC4kkHc02</t>
   </si>
   <si>
     <t>https://open.spotify.com/track/7JURG8CEmJAvO4DknCtQoH?si=6464e82fa74c4551</t>
@@ -557,8 +535,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,18 +546,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -589,7 +560,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -598,28 +576,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{89F35037-88E4-42FE-B11E-8776E67DE6B6}"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -630,10 +609,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -671,69 +650,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -757,54 +738,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -814,7 +794,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -823,7 +803,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -832,7 +812,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -840,10 +820,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -872,7 +852,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -885,13 +865,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -909,884 +888,880 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="77.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+      <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+      <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+      <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+      <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+      <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+      <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+      <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+      <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+      <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+      <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+      <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+      <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+      <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+      <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+      <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+      <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+      <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+      <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+      <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+      <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+      <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+      <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+      <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>TITLE</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>NEW PLAYS March 27, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +501,11 @@
           <t>Mahamrityunjay Mantra Jaap - From "Mahamrityunjay Mantra Jaap - Zee Music Devotional"</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2,889</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -503,29 +513,30 @@
           <t>https://open.spotify.com/track/59KqyKPmPEi0r9noU5Uh1G?si=2ac6cd4cced64630</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2021-11-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Surinder Sehaj</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>© 2021 Bhajan Shrinkhla</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Hey Shiv Shambhu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>None</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2021-11-01</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Surinder Sehaj</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>© 2021 Bhajan Shrinkhla</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hey Shiv Shambhu</t>
         </is>
       </c>
     </row>
@@ -560,6 +571,11 @@
           <t>Om Namah Shivaya - 108 Times</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7,744,282</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,29 +583,30 @@
           <t>https://open.spotify.com/track/6X6XP4mJwcCyxG4Y1aQALI?si=1a57180753c6435d</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hari Om Sharan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>© 2002 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jai Jai Shambho</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>None</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2002-01-01</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Hari Om Sharan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>© 2002 Ishtar Music Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jai Jai Shambho</t>
         </is>
       </c>
     </row>
@@ -624,6 +641,11 @@
           <t>Rudra Rudra</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>49,962</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -653,7 +675,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Shiva Tandava Stotram</t>
+          <t>Shiva Mantra Ghanapaatha</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>30,166,753</t>
         </is>
       </c>
     </row>
@@ -688,6 +715,11 @@
           <t>Shiva-Vasishta Kritam Dharidriyadukkadah</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>24,815</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -695,29 +727,30 @@
           <t>https://open.spotify.com/track/6Y7f3aBZk2n8F9tbMfnlCT?si=5401398d518d4c9f</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Unnikrishnan, Uthara Unnikrishnan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Strumm Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Nagendra Haraya</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>327,237</t>
         </is>
       </c>
     </row>
@@ -727,29 +760,30 @@
           <t>https://open.spotify.com/track/3hXyiduirwfIUqW6ujMqKc?si=2541763400094a0b</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Uthara Unnikrishnan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Strumm Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shambho Mahadeva</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,177,553</t>
         </is>
       </c>
     </row>
@@ -759,29 +793,30 @@
           <t>https://open.spotify.com/track/69xteBqWnhMFPmmWAd4bpY?si=b7a2f4ebd46d4e58</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Uthara Unnikrishnan, Prithvi Chandrasekhar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Times Music</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Karpura Gauram</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>43,876</t>
         </is>
       </c>
     </row>
@@ -791,29 +826,30 @@
           <t>https://open.spotify.com/track/3WOWDCNf5BTOIZnY8IsjLz</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Utkarsh Trivedi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Merchant Records</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mera Bhola Naache</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>68,489</t>
         </is>
       </c>
     </row>
@@ -823,29 +859,30 @@
           <t>https://open.spotify.com/track/4HvjyvjHqpRfFZ92NIjrgC</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Utkrishta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Natraj Bhakti Yoga</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Jai Shiv Omkara</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>73,191</t>
         </is>
       </c>
     </row>
@@ -855,27 +892,28 @@
           <t>https://open.spotify.com/track/4irWL4MMin959yhONN4wBh?si=ec4b4ab8baec4600</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-02-15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Veeramani Kannan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Super Audio Madras Pvt Ltd</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>Kalabhairava Ashtakam</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -887,29 +925,30 @@
           <t>https://open.spotify.com/track/7ejDOHhAT5Q1Z8NoGspohD?si=e1a792018d884820</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-12-21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vighnesh Ghanapaathi, Gurumurthi Bhat, Shridhara Bhat Vedadhara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2017 Rajshri Entertainment Private Limited</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Purusha Suktam</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2,182,915</t>
         </is>
       </c>
     </row>
@@ -919,29 +958,30 @@
           <t>https://open.spotify.com/track/2AzKEYX1fImeXzVD5l9GTV?si=1ab8be2b759b4e5b</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2009-12-31</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vijay Prakash</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2009 Bravo</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Shiva Hom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5,154,539</t>
         </is>
       </c>
     </row>
@@ -951,29 +991,30 @@
           <t>https://open.spotify.com/track/3UsmXOV2HZmHUa6KwhOEs5?si=48f2f89e343147d5</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2005-11-21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vijayaa Shanker</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2005 Times Music</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiva Suprabhatam</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>205,471</t>
         </is>
       </c>
     </row>
@@ -983,29 +1024,30 @@
           <t>https://open.spotify.com/track/4bjFwwjB1tzt8fbY7lSEYl?si=cf6f600cc6bf45ce</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-08-08</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vikram Montrose</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Zee Music Company</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Har Har Mahadev - From "Omg 2"</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,917,976</t>
         </is>
       </c>
     </row>
@@ -1015,29 +1057,30 @@
           <t>https://open.spotify.com/track/2dIuKvwvrqVWOERuHNN0bW</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-07-11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vinay Katoch, Vineet Katoch</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Vinay Katoch</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kedarnath 2 - Bhole ke dar</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>362,710</t>
         </is>
       </c>
     </row>
@@ -1047,29 +1090,30 @@
           <t>https://open.spotify.com/track/6CU7HovKGupbRsjWRPFY08?si=edc58fccaff04b1e</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-03-03</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vinod Rathod</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2017 Times Music</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Chale Bhole Bhandari</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>41,641</t>
         </is>
       </c>
     </row>
@@ -1079,29 +1123,30 @@
           <t>https://open.spotify.com/track/0vdP3VWdphbGpDGjoYqeRs?si=86e4cfc2494a4bb6</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-07-12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vipin Sachdeva</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2017 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Chalo Shiv Shankar Ke Mandir Mein Bhakton</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2,421,553</t>
         </is>
       </c>
     </row>
@@ -1111,29 +1156,30 @@
           <t>https://open.spotify.com/track/6xi34vtxxXVtiH2aw2rdrL?si=343bf5f8c2c74a58</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-11-10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Viruss</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Zee Music Company</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BamBholle - From "Laxmii"</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>22,504,013</t>
         </is>
       </c>
     </row>
@@ -1143,29 +1189,30 @@
           <t>https://open.spotify.com/track/5IZ8qFjokJdiuU2T4saJsY?si=390a884d8f1041a9</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-07-27</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Viruss</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Acme Muzic</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Tandav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>27,133</t>
         </is>
       </c>
     </row>
@@ -1175,29 +1222,30 @@
           <t>https://open.spotify.com/track/3RRAr1F7Oap2CwLE1q6nqD?si=beea1888ad42479e</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-11-15</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Purbayan Chatterjee, Zakir Hussain, Shankar Mahadevan, Nakul Chugh, Aditya Srinivasan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Purbayan Chatterjee</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiva Shankara</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>470,682</t>
         </is>
       </c>
     </row>
@@ -1207,29 +1255,30 @@
           <t>https://open.spotify.com/track/2DbZYpFEAJyDnPxJGc3GVm</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Abhilipsa Panda</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Mad 4 Music Haryanvi</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Naam Tera Bhole</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2,750,051</t>
         </is>
       </c>
     </row>
@@ -1239,29 +1288,30 @@
           <t>https://open.spotify.com/track/6bE5MGNyQtflKcPlSZFnkx</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Koinage Records</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jai Bhole Baba Bhole Bhandari</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>107,002</t>
         </is>
       </c>
     </row>
@@ -1271,29 +1321,30 @@
           <t>https://open.spotify.com/track/1zCuPTsMATXhklheuuxgOW</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Divya Kumar, Saaveri Verma, Prashant Satose</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bam Leheri</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>80,797</t>
         </is>
       </c>
     </row>
@@ -1303,29 +1354,30 @@
           <t>https://open.spotify.com/track/77x2S5ZzBcxY1AzWl69stk</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-06-15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hansraj Raghuwanshi, Kartik Dev, Gaurav Dev</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Hansraj Raghuwanshi</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Parvati Bhole Shankar Se</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>576,895</t>
         </is>
       </c>
     </row>
@@ -1335,29 +1387,30 @@
           <t>https://open.spotify.com/track/3Ljc8rCA2yvfzrNaXWrrhl</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-04-17</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hashtag Pandit</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Hashtag Pandit</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mahadev</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1,563,638</t>
         </is>
       </c>
     </row>
@@ -1367,29 +1420,30 @@
           <t>https://open.spotify.com/track/67W3L4cfMHVrsWRf3Iq9sc</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jaya Kishori</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Jaya Kishori under exclusive license to Warner Music India</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bhola Bhandari</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>276,076</t>
         </is>
       </c>
     </row>
@@ -1399,29 +1453,30 @@
           <t>https://open.spotify.com/track/6xr7AREVTif4eXMsWIPPhm</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-07-14</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jeetu Sharma, Ankita Dash</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Jeetu Sharma Productions</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bholenath Mahadev Ashutosh Shankara (Shiv Mantra Mashup)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>24,419</t>
         </is>
       </c>
     </row>
@@ -1431,29 +1486,30 @@
           <t>https://open.spotify.com/track/6MLJ8aGzWNjSa0oLR4Ug2N</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kritiman Mishra, Abhilipsa Panda</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>℗ 2023 Sony Music Entertainment India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Japta Om Namah Shivay - Lofi Flip</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>221,470</t>
         </is>
       </c>
     </row>
@@ -1463,29 +1519,30 @@
           <t>https://open.spotify.com/track/5Pq3BSxLALKrz8DQ8kvnrj</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Meet Bros., Siddharth Mohan, Sangita Singhh</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 MB Music</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Mere Bhagwaan Hain</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>76,279</t>
         </is>
       </c>
     </row>
@@ -1495,29 +1552,30 @@
           <t>https://open.spotify.com/track/5r9zBLj6QgKwjECFQK8TbW</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-03</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Salim–Sulaiman, Shreya Ghoshal, Shraddha Pandit</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Merchant Records</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shankaraay</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>214,695</t>
         </is>
       </c>
     </row>
@@ -1527,29 +1585,30 @@
           <t>https://open.spotify.com/track/41cdHtcm6DZMHfJU8tWWgS</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shankar Mahadevan, Devendra Fadnavis, Amruta Fadnavis</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Times Music</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Devadhi Dev</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>73,057</t>
         </is>
       </c>
     </row>
@@ -1559,29 +1618,30 @@
           <t>https://open.spotify.com/track/3gMNBHUlQfJE3c723L9QK0</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Siddharth Mohan, Bawa Gulzar</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bam Bam Bhole</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>158,598</t>
         </is>
       </c>
     </row>
@@ -1591,29 +1651,30 @@
           <t>https://open.spotify.com/track/3L5m4O5iaGFMHJk9W6XzaP</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sonika Sharma Agarwal, Vickky Agarwal</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Playbeatz</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Shiva</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>16,752</t>
         </is>
       </c>
     </row>
@@ -1623,29 +1684,30 @@
           <t>https://open.spotify.com/track/0s1WryMJxloThaJ6HYHX9s</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sonika Sharma Agarwal, Vickky Agarwal</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Rising Indie Music</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Dhyan Mantra</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>150,721</t>
         </is>
       </c>
     </row>
@@ -1655,29 +1717,30 @@
           <t>https://open.spotify.com/track/6Jds5jhw9tSiV5U0vuPPDb</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-07-30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sonu Nigam</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 I Believe Music</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rudrashtakam</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>647,920</t>
         </is>
       </c>
     </row>
@@ -1687,29 +1750,30 @@
           <t>https://open.spotify.com/track/5nFg95nfYx6WL0aeDmCoKq</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sonu Nigam</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 I Believe Music &amp; Global Music Junction</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mahamrityunjay Mantra - 108 Mantra Jaap</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>194,844</t>
         </is>
       </c>
     </row>
@@ -1719,29 +1783,30 @@
           <t>https://open.spotify.com/track/1p6sq9xxYUwEZyuFiZacUO</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Udit Narayan, Navin Tripathi, Navin-Manish</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 koinagerecords</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shankara</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>78,618</t>
         </is>
       </c>
     </row>
@@ -1751,29 +1816,30 @@
           <t>https://open.spotify.com/track/0HUb6tXdeqdWdQFP4aIJEk</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vinay Katoch, Vineet Katoch</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Vinay Katoch under exclusive license to Sarvinarck Music</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bhole Baba Mere</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>93,756</t>
         </is>
       </c>
     </row>
@@ -1783,29 +1849,30 @@
           <t>https://open.spotify.com/track/0k7dwupjiC5xzhiAtQZmDz?si=8a51f7607da146db</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Music Nova</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Namah Shivaya Har Har by Anuradha Paudwal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>32,251</t>
         </is>
       </c>
     </row>
@@ -1815,29 +1882,30 @@
           <t>https://open.spotify.com/track/2RzXfGR62zUJhHtnczH9Qg?si=b1464ffb048e4073</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2007-01-01</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pandit Jasraj</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2007 Virgin Records (India) Pvt Ltd</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Dhun (Shiv Stuti Bhajan)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>3,664,526</t>
         </is>
       </c>
     </row>
@@ -1847,29 +1915,30 @@
           <t>https://open.spotify.com/track/3hSvLCEDyFbfuTkcHffmNw?si=55730b304f1848b2</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2013-04-13</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Purushottam Upadhyay, Hemangini Desai</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>℗ 2013 Adhishri Trading Pvt. Ltd. under exclusive license to Sony Music Entertainment India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shivanamashtak Stotram - Chandra Shekhar Pahimam</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3,176</t>
         </is>
       </c>
     </row>
@@ -1879,29 +1948,30 @@
           <t>https://open.spotify.com/track/3KufXBwCKbsj90O8rfPCMG?si=1bf638ef2c584d3c</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2005-11-24</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shounak Abhisheki</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>℗ 2005 Sony Music Entertainment India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Stavan Path - Shiv Stuti</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>18,896</t>
         </is>
       </c>
     </row>
@@ -1911,27 +1981,28 @@
           <t>https://open.spotify.com/track/0cq9ZTRtMhYqaId40mI7Ua?si=9d773eb439334f3a</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2013-04-13</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Gaurav Dhruv</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>℗ 2013 Adhishri Trading Pvt. Ltd. under exclusive license to Sony Music Entertainment India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>Om Yadnen Yadnya - Mantra Pushpanjali</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -1943,29 +2014,30 @@
           <t>https://open.spotify.com/track/1QiV9s08Fiyn3LRPvXz0w1?si=0339f1b47eb5470d</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2005-11-24</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shounak Abhisheki</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>℗ 2005 Sony Music Entertainment India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shree Shiv Manas Puja</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>15,596</t>
         </is>
       </c>
     </row>
@@ -1975,27 +2047,28 @@
           <t>https://open.spotify.com/track/0und6UkEuD9AAhkIq0r0sD?si=3a0009220f954401</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2012-11-01</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Manoj Pandey, Suman</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2012 Indya Records</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>Mahamritunjay Rudra Stuti</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2007,29 +2080,30 @@
           <t>https://open.spotify.com/track/6EOaSNJpQLCCaFOKEADkiF?si=8f2ad1e82a734c92</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-02-12</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bhai Ajay</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2018 Times Music / Nupur Audio</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bhole Nath Se Nirala</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5,985</t>
         </is>
       </c>
     </row>
@@ -2039,29 +2113,30 @@
           <t>https://open.spotify.com/track/3BxudeLTvGyaNFhE3ycfb8?si=22ed2b25a1614f81</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-03-03</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Suresh Wadkar, Hariharan</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2017 Times Music</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Har Ek Pal Chhin</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2,848</t>
         </is>
       </c>
     </row>
@@ -2071,27 +2146,28 @@
           <t>https://open.spotify.com/track/1R13ww5VCI4ObL85cJR79d?si=f366bb87597f4841</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2011-02-26</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dinesh Dube</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2011 Times Music</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
+        <is>
+          <t>Jayati Jayati Jag Niwaas</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2103,27 +2179,28 @@
           <t>https://open.spotify.com/track/7FZiqWCmtQi49mTkrD8jQl?si=d309d57ce9884a40</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-07-12</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mousumi Das</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2017 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
+        <is>
+          <t>Panchakshar Stotram</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2135,29 +2212,30 @@
           <t>https://open.spotify.com/track/4GKjLtelkELBeI4kwcUFxD?si=5ebbe9aab46343c7</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-01-01</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bombay Jayashri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2010 Inreco Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiva Panchakshara Stuti</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>122,291</t>
         </is>
       </c>
     </row>
@@ -2167,29 +2245,30 @@
           <t>https://open.spotify.com/track/0kfXAtDD0fHPXzyV0IbHZ5?si=e8d63a841c184ee7</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-11-19</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Manoj Mishra</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2018 Music Wires</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Namah Shivay For Meditation</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>28,458</t>
         </is>
       </c>
     </row>
@@ -2199,29 +2278,30 @@
           <t>https://open.spotify.com/track/7elNdCh77V6jMoJiuay0Gw?si=028c3a44fce94fb1</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-04-01</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rajesh Bisen</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2010 Shemaroo Entertainment Ltd.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Charan Kamal</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>5,171</t>
         </is>
       </c>
     </row>
@@ -2231,29 +2311,30 @@
           <t>https://open.spotify.com/track/7JURG8CEmJAvO4DknCtQoH?si=6464e82fa74c4551</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2002-08-01</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Ashit Desai</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2001, Times Music, India</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pratah Smaran</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>144,383</t>
         </is>
       </c>
     </row>
@@ -2263,29 +2344,30 @@
           <t>https://open.spotify.com/track/1NIH3rTJwzrvDpifygBXOV?si=40cebef15d5643fc</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2002-02-25</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Narendra Chanchal</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2002 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jai Shiv Shambhu</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1,633</t>
         </is>
       </c>
     </row>
@@ -2295,29 +2377,30 @@
           <t>https://open.spotify.com/track/6UmMpdJj47C9M4Iq3UAn1v?si=59a8c138502149c1</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-09-27</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Siddharth Mohan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 2155258 Records DK</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mantra Jaap Om Namah Shivaya Shivji Sada Sahaye</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>4,412,338</t>
         </is>
       </c>
     </row>
@@ -2327,29 +2410,30 @@
           <t>https://open.spotify.com/track/3Sl3Tw1ThNUg9DGHMAgXoY?si=9eca67a948cf4a5f</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-10-10</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jagjit Singh, Sachin Gupta, Female Voice, Male Voice</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Har Har Mahadev (Bhajan) Lofi</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>11,695</t>
         </is>
       </c>
     </row>
@@ -2359,29 +2443,30 @@
           <t>https://open.spotify.com/track/5QCn7HQWfPmDuNUvSxN4Ia?si=c88f5b5c248846ac</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jazim Sharma</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Shemaroo Entertainment Ltd.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>O Shiva</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>13,431</t>
         </is>
       </c>
     </row>
@@ -2391,29 +2476,30 @@
           <t>https://open.spotify.com/track/7f7iwlCuuGKwpZn8yoeF9L?si=5927a6fbf1624e30</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kailash Kher</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Shambho</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>308,664</t>
         </is>
       </c>
     </row>
@@ -2423,29 +2509,30 @@
           <t>https://open.spotify.com/track/70N41TReykzvs30nT0dgC1?si=931546d393004204</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2003-11-01</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jagjit Singh</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2003 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hey Shiv Shankar Hey Karunakar</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>434,625</t>
         </is>
       </c>
     </row>
@@ -2455,27 +2542,28 @@
           <t>https://open.spotify.com/track/6dPA8odbsYzUua40GIBuk6?si=cf44ca33925445f4</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vineet Mohan</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Binaca Tunes</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
+        <is>
+          <t>Nandi Ki Sawari Kare Shiv Shambhu</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2487,27 +2575,28 @@
           <t>https://open.spotify.com/track/0t0ktm7ZEbCxFfFNYiByH7?si=f5041b159668459f</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anup Jalota, Sadhana Sargam</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Voila Digi Private Limited</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
+        <is>
+          <t>Bolo Om Namah Shivay</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2519,29 +2608,30 @@
           <t>https://open.spotify.com/track/1zhqgq6vwrbZjUjA7K4ytb?si=78bc04f56aee42ca</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-02-05</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rattan Mohan Sharma</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2014 Strumm Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sheesh Gang Ardhang Parvati - Bhajan</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>9,185</t>
         </is>
       </c>
     </row>
@@ -2551,29 +2641,30 @@
           <t>https://open.spotify.com/track/35TCPROQD9kD5SXMRAxv3A?si=5ffce5a23f1649e0</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2016-04-22</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sanjeev Abhyankar</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2016 Strumm Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jai Shankar Shiv Shankar</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>60,136</t>
         </is>
       </c>
     </row>
@@ -2583,29 +2674,30 @@
           <t>https://open.spotify.com/track/2R2r3WICpwzDcvRDGPGAJ9?si=f44a5b241e154f3f</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-08-03</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sanj V</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2018 Shemaroo Entertainment Ltd.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Nama Shivay</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>27,450</t>
         </is>
       </c>
     </row>
@@ -2615,27 +2707,28 @@
           <t>https://open.spotify.com/track/68eyhfhV8K2Ei9jYyYNvTO?si=4213d98836df4570</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-11-01</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sudha Biswas</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 SmartWay Music</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
+        <is>
+          <t>Karpur Gauram Aarti</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2647,29 +2740,30 @@
           <t>https://open.spotify.com/track/3PELWvh09i2gIBdz0oJ5RA?si=3d0f89c864df4999</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sadhana Sargam</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© Sanjivani Music</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Chalisa</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>18,980</t>
         </is>
       </c>
     </row>
@@ -2679,27 +2773,28 @@
           <t>https://open.spotify.com/track/6v6uaHXrMFuT6eI9dMg5ml?si=030ca3a91e9d4ca6</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-07-08</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shri</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Shrikanth Nair</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
+        <is>
+          <t>Shiva Gayatri Mantram</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2711,29 +2806,30 @@
           <t>https://open.spotify.com/track/08a0jmGAUMnQmcXI29OoTS?si=002685600fd44d40</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Priests of Kashi</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Strumm Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sri Suktam</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1,087,602</t>
         </is>
       </c>
     </row>
@@ -2743,29 +2839,30 @@
           <t>https://open.spotify.com/track/2vjxyW2CrqrVaU1mTl4Icp?si=ae64d0003f104179</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2000-11-24</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pandit Jasraj</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>℗ 2000 Adhishri Trading Pvt. Ltd. under exclusive license to Sony Music Entertainment India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Raksha Stotram - Charitham Deva Devasya</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>519,931</t>
         </is>
       </c>
     </row>
@@ -2775,29 +2872,30 @@
           <t>https://open.spotify.com/track/4llJ2JIekVHr31BfLg3Nuy?si=50aa0c28352f408c</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-07-09</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Priyankaa Bhattacharya</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2018 Music Wires</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shri Shiv Rudrashtakam (Namami Shamishan)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>22,086</t>
         </is>
       </c>
     </row>
@@ -2807,29 +2905,30 @@
           <t>https://open.spotify.com/track/5scmf36Llw1btFCpAJDw5g?si=7b13a5d776344a44</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-04-21</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vijay Prakash</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2014 Strumm Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Lingashtakam</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>78,378</t>
         </is>
       </c>
     </row>
@@ -2839,29 +2938,30 @@
           <t>https://open.spotify.com/track/72moSJDPyMmydGBEIKTNMa?si=e1fbe5d76a9d40e4</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shri</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Shrikanth Nair</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiva Mantra</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>59,154</t>
         </is>
       </c>
     </row>
@@ -2871,27 +2971,28 @@
           <t>https://open.spotify.com/track/0HForK1kHJk7LbwgW96out?si=ace4b78383144b98</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-02-25</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Raju Rao</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Red Ribbon Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
+        <is>
+          <t>Mahamrityunjay Mantra</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -2903,29 +3004,30 @@
           <t>https://open.spotify.com/track/1hq123rsrlMgmDVX1ZbkJR?si=1e7b2e9fda874c40</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Arun Singh</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Binaca Tunes</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Tryambakam Yajamahe</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>4,705</t>
         </is>
       </c>
     </row>
@@ -2935,29 +3037,30 @@
           <t>https://open.spotify.com/track/4E8Wkn8hbWDmvx9UVc85xs?si=ee234059c7ff49f7</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-06-24</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rattan Mohan Sharma, Pandit Jasraj</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2014 Strumm Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Karpuragauram</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>211,060</t>
         </is>
       </c>
     </row>
@@ -2967,29 +3070,30 @@
           <t>https://open.spotify.com/track/1eAjDzQaLNG0GErxB0S1zg?si=8822dacc31a940c2</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-01-27</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hema Desai</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2010 Times Music</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Panchaakshar</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3,129</t>
         </is>
       </c>
     </row>
@@ -2999,29 +3103,30 @@
           <t>https://open.spotify.com/track/3Fmul5wBtFZeP16GPwDuyc?si=f72ad1fe70144ab1</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2005-10-05</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Suresh Wadkar</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© Fountain Music Company</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Mantra</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>19,268</t>
         </is>
       </c>
     </row>
@@ -3031,27 +3136,28 @@
           <t>https://open.spotify.com/track/4aZUwyCRDeWRrMB55BEo5P?si=6d6a930a56684d6f</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-08-23</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kavitaa Singh</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2019 Shemaroo Entertainment Ltd.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
+        <is>
+          <t>Shiv Tandav By Kavitaa Singh</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -3063,29 +3169,30 @@
           <t>https://open.spotify.com/track/20AmHTkwFXXeYHOpBsdGQv?si=3f918fac4b0941fd</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-07-19</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vinod Rathod, Ram Shankar</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2019 Music Wires</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shri Tulja Shankar Shlok</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4,625</t>
         </is>
       </c>
     </row>
@@ -3095,29 +3202,30 @@
           <t>https://open.spotify.com/track/1DyoCTs72I1oqqugJywBWr?si=483336b316be47a8</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-08-03</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Guruji Vedmurti Mandar, Khaladkar Guruji</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2018 Shemaroo Entertainment Ltd.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Mahimana</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10,583</t>
         </is>
       </c>
     </row>
@@ -3127,29 +3235,30 @@
           <t>https://open.spotify.com/track/7K8QiQUMgZzZnMrEYhzzkH?si=b490b3751d0c4752</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2005-10-31</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sapana, Priyamvada, Anuja, Darshana, Deepika Dony, Kamal Engels, Rakesh, Hari Nath Jha</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2005 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shri Shiva Stuti</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>4,623</t>
         </is>
       </c>
     </row>
@@ -3159,29 +3268,30 @@
           <t>https://open.spotify.com/track/1VyDvLym8fv5qRojqmaKBb?si=28dff64ce3d2411c</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-02-25</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Ravindra Sathe</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Living Media India Limited</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shri Shiva Gayatri</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>42,370</t>
         </is>
       </c>
     </row>
@@ -3191,29 +3301,30 @@
           <t>https://open.spotify.com/track/3CDUoJyBxGF5OpiZktdcej?si=6d58aa30b55a466a</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2018-08-03</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuja Bisaria</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2018 Shemaroo Entertainment Ltd.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Naag Stotra</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>12,838</t>
         </is>
       </c>
     </row>
@@ -3223,29 +3334,30 @@
           <t>https://open.spotify.com/track/6rmWoWiH7Lu4aD8z1JKLfL?si=ccdb6a5cad6a4a5d</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2001-02-20</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Ashit Desai, Hema Desai, Alap Desai</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2001 Times Music</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rudrashtak</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>285,380</t>
         </is>
       </c>
     </row>
@@ -3255,29 +3367,30 @@
           <t>https://open.spotify.com/track/2y79yENqpO0xtvqQBhFPeu?si=4ded6c71d8b64afc</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1991-04-24</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal, Suresh Wadkar</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1991 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dam Dam Shiv Ka Damru Baaje Re</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>162,549</t>
         </is>
       </c>
     </row>
@@ -3287,29 +3400,30 @@
           <t>https://open.spotify.com/track/0Muo0sL5fz9FFXhuZcdLfh?si=b3d151a9d945462e</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1998-07-24</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1998 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bhola Baba Kedaraeshwar</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2,991</t>
         </is>
       </c>
     </row>
@@ -3319,27 +3433,28 @@
           <t>https://open.spotify.com/track/6kwa27O3LsqFcLZSnWAvQ9?si=f8cb1ffa3b284840</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2000-09-25</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2000 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
+        <is>
+          <t>Hey Bholenath Daya Kar De</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -3351,27 +3466,28 @@
           <t>https://open.spotify.com/track/6bWJTBRBBm7UGIA6LVKVvz?si=e24d2cb89db44a4c</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2000-01-01</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shounak Abhisheki</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>℗ 2000 Sony Music Entertainment India Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
+        <is>
+          <t>Shambhu Darshan Do</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -3383,27 +3499,28 @@
           <t>https://open.spotify.com/track/76ouAJVifuwO9gG5R6Bh2K?si=f161b09a163342ad</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2000-09-25</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2000 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
+        <is>
+          <t>Aai Main Tere Dware Bhole Dani</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -3415,27 +3532,28 @@
           <t>https://open.spotify.com/track/49x4cRyxx0Hd6BmnHTalLx?si=05d6205f708c48c8</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1997-11-11</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1997 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
+        <is>
+          <t>Bhole Shankar Damru Wale</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -3447,27 +3565,28 @@
           <t>https://open.spotify.com/track/38qh3IDY7nKBJmnhJA6tnA?si=d57d4ecc2fa74050</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Ashu Punjabi, Rakesh Kala, Raj Laxmi</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Shubham Audio Video</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
+        <is>
+          <t>Bhole Baba Tere Dar</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -3479,29 +3598,30 @@
           <t>https://open.spotify.com/track/28ZFIgvGQYJ4AZYBbhW2JH?si=4f5d5995c4814097</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1996-07-14</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anup Jalota</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1996 Ishtar Music Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vinati Karata Haath Jodkar</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>1,072</t>
         </is>
       </c>
     </row>
@@ -3511,29 +3631,30 @@
           <t>https://open.spotify.com/track/7FpZFNKeuVDvjhfTYemjMz?si=b2576bf3421c499c</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anup Jalota</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Savera Jab Ho Mere Kartaar (From "Shambhu Teri Jai Jaikar")</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>27,547</t>
         </is>
       </c>
     </row>
@@ -3543,29 +3664,30 @@
           <t>https://open.spotify.com/track/64ydMkRXKLG9bRS6XVmtEe?si=45d3706e51cd462f</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Suresh Wadkar</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Strumm Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jai Shiv Shankar</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>16,696</t>
         </is>
       </c>
     </row>
@@ -3575,27 +3697,28 @@
           <t>https://open.spotify.com/track/2WUUsMGp17ye3vpmprSv9i?si=1acb1a991c374338</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2006-07-21</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Ashok Chopra, Pawan Chopra</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2006 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
+        <is>
+          <t>Shiv Ke Dham Se Aaya Hai Sandesh</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -3607,29 +3730,30 @@
           <t>https://open.spotify.com/track/3NFg7STj6E17uCJPqPPlmU?si=4b3609e7840843bf</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2008-08-08</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Lalitya Munshaw</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2008 Red Ribbon Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kailash Mein Baaje - Original</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>13,828</t>
         </is>
       </c>
     </row>
@@ -3639,29 +3763,30 @@
           <t>https://open.spotify.com/track/57Juf0uJ10F8V7DK7LTIuk?si=43203a728ddc4e77</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1998-08-04</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1998 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Nis Din Pooja Karen</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>35,008</t>
         </is>
       </c>
     </row>
@@ -3671,29 +3796,30 @@
           <t>https://open.spotify.com/track/4atNrjRBQRuu1UsQG97TmV?si=60dda183dcdc4b18</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2002-02-25</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Narendra Chanchal</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2002 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bhole Baba Tohri Leela</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2,200</t>
         </is>
       </c>
     </row>
@@ -3703,29 +3829,30 @@
           <t>https://open.spotify.com/track/3NaU2x4cnHJZhf7mge59Fp?si=ee17ca68bd4c41a1</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2001-02-02</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Narendra Chanchal</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2001 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Man Ke Bhole Panchhi Ko</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2,975</t>
         </is>
       </c>
     </row>
@@ -3735,29 +3862,30 @@
           <t>https://open.spotify.com/track/2qT6qO2Jeb7T56ji8rArpB?si=9a2b29ac4ebf47d9</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anup Jalota</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2013 Red Ribbon Entertainment Pvt. Ltd.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Paarvati Ke Naath</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>10,410</t>
         </is>
       </c>
     </row>
@@ -3767,29 +3895,30 @@
           <t>https://open.spotify.com/track/24Qn5ECIETibM2newcneIT?si=e0cbfe0434e14f6f</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2000-02-23</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2000 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Subah Ki Pehli Kirno Mein</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>3,411</t>
         </is>
       </c>
     </row>
@@ -3799,29 +3928,30 @@
           <t>https://open.spotify.com/track/3ZBTv0pKvJ6YId7ozxW4Uv?si=2cf29c8f03314ae6</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sachet Tandon, Parampara Tandon</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Tandav Stotram (Har Har Shiv Shankar)</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>38,365,478</t>
         </is>
       </c>
     </row>
@@ -3831,29 +3961,30 @@
           <t>https://open.spotify.com/track/57AZ5XqVaLSt10oI3p2Vvm?si=5fb31bca27d94f6c</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Dhvani Arora</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© Dhvani Arora</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Rudrashtakam</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>459,161</t>
         </is>
       </c>
     </row>
@@ -3863,29 +3994,30 @@
           <t>https://open.spotify.com/track/3s4OkT0TwjLn8hv3DeqyvI?si=4ca85ec9c78f4d1a</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Strumm Entertainment Pvt Ltd</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Amrit Bhakti</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>199,928</t>
         </is>
       </c>
     </row>
@@ -3895,29 +4027,30 @@
           <t>https://open.spotify.com/track/3d46guZl9yxvz9VGxAZgQG?si=974f2e53f4544d5d</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-07-23</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Suresh Wadkar</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Red Ribbon - Popskopevent</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Namah Shivay</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>454,154</t>
         </is>
       </c>
     </row>
@@ -3927,29 +4060,30 @@
           <t>https://open.spotify.com/track/2qseRPcdUsepd0XhncitFw?si=7d87adcaba2a488c</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Suresh Wadkar</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Shemaroo Entertainment Ltd.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mahamrityunjay Mantra Jaap</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>274,749</t>
         </is>
       </c>
     </row>
@@ -3959,29 +4093,30 @@
           <t>https://open.spotify.com/track/0ykCuN1l8Jhg6n7RNHLE9N?si=27e5113369b94c48</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Deejay Mayank</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Maa Sitla Studio</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Tandav X Har Har Shiv Sankar</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>282,780</t>
         </is>
       </c>
     </row>
@@ -3991,29 +4126,30 @@
           <t>https://open.spotify.com/track/5whLVAJerNqGp7GAPCfNIp?si=e77b8ff802e7413a</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2017-07-12</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Manhar Udhas</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2017 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jai Shiv Omkara</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2,363,486</t>
         </is>
       </c>
     </row>
@@ -4023,29 +4159,30 @@
           <t>https://open.spotify.com/track/4wuko35BYMNWbt2W1cF2Yw?si=e67920fb18d6453c</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vinay Katoch, Vineet Katoch</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Vinay Katoch</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mai Shiv Hun</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1,811,923</t>
         </is>
       </c>
     </row>
@@ -4055,29 +4192,30 @@
           <t>https://open.spotify.com/track/1aIQZoMTIBMvuc88C4rOVX?si=d867a9c477fa4574</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2019-07-19</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Priyankaa Bhattacharya</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2019 Music Wires</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Tandav Stotram</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>452,467</t>
         </is>
       </c>
     </row>
@@ -4087,29 +4225,30 @@
           <t>https://open.spotify.com/track/0ajbRE3InnyyxJSAgXvNXg?si=e011a8acd5194c62</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2005-02-22</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shankar Sahney</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2005 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mahamrityunjay Mahadev Trahimam Sharanagatam (Prarthna), Janm Mrityu Jara Vyadhi Piditam Karmbandhnai, Om Tryaybakam Yajamahe Sugandhi Pushtivardhnam (Mantra), Urvarukmiv Bandhnaan Mrityumukhi Ymamritaat</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>3,752,654</t>
         </is>
       </c>
     </row>
@@ -4119,29 +4258,30 @@
           <t>https://open.spotify.com/track/5oXU4EaNlCJO4bfbB7jrME?si=4e4920b969154d2e</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shreya Ghoshal</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Setu Creations</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Purab Se</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1,785,022</t>
         </is>
       </c>
     </row>
@@ -4151,29 +4291,30 @@
           <t>https://open.spotify.com/track/5oXU4EaNlCJO4bfbB7jrME?si=7712aacf86134c22</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shreya Ghoshal</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Setu Creations</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Purab Se</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1,785,022</t>
         </is>
       </c>
     </row>
@@ -4183,27 +4324,28 @@
           <t>https://open.spotify.com/track/06w2YyPruh1ZrgXA0qA7lJ?si=bb0ab5754d154ea2</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Abhi Dutt, JJ VYCK</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 B-Live Music</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
+        <is>
+          <t>Naam Japun Tera</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -4215,29 +4357,30 @@
           <t>https://open.spotify.com/track/6ywNe2BWj1FmOFHDgZfktG?si=9e080e7ec20549e6</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Abhilipsa Panda</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bum Bum Bhole</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>192,489</t>
         </is>
       </c>
     </row>
@@ -4247,29 +4390,30 @@
           <t>https://open.spotify.com/track/5lbM5qYZiMgL8UCxla3Njl?si=29701f77f92c4a8f</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Amit Trivedi, Yashita Sharma, Meghna Mishra, Arun Kamath, Devenderpal Singh</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 At Azaad</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Aumkara</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>5,758</t>
         </is>
       </c>
     </row>
@@ -4279,29 +4423,30 @@
           <t>https://open.spotify.com/track/0sQ6JvhPi3rfSjHKKwmZ1h?si=cf07319eac3e4b63</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Ankush Bhardwaj</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Ankush Bhardwaj</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MAHADEV KI RAAT</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>47,380</t>
         </is>
       </c>
     </row>
@@ -4311,29 +4456,30 @@
           <t>https://open.spotify.com/track/4DPKbu2wIBunjc819Q1laV?si=e21b639d9f864023</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2009-11-01</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anup Jalota</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2009 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Ji Ki Karo Jaokar</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>1,867</t>
         </is>
       </c>
     </row>
@@ -4343,29 +4489,30 @@
           <t>https://open.spotify.com/track/3fgYjw0zWZFbGALfoPoizO?si=98c91be1d95f40a1</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2012-05-01</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anup Jalota</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2012 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Ki Bhakti Shiv Ki Shakti</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>1,496</t>
         </is>
       </c>
     </row>
@@ -4375,29 +4522,30 @@
           <t>https://open.spotify.com/track/37vfAHU9SGQLBCWTv1r4jN?si=7cdb54d1752d49f4</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anup Jalota</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hey Gangadhar Hey Shivshanker</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>4,046</t>
         </is>
       </c>
     </row>
@@ -4407,29 +4555,30 @@
           <t>https://open.spotify.com/track/1STOBwB6QFBoHjjzGwVbPR?si=4ba578e440c64e4a</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2003-11-01</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jagjit Singh</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2003 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Shivay Hari Om Shivay - Dhun</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>371,980</t>
         </is>
       </c>
     </row>
@@ -4439,29 +4588,30 @@
           <t>https://open.spotify.com/track/1SyZ2tSui4zwzAwJtgXmB5?si=f73df23260c34c49</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2014-02-20</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Anuradha Paudwal</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2014 Shailesh Dani</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Namah Shivaay - Dhun</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>403,455</t>
         </is>
       </c>
     </row>
@@ -4471,29 +4621,30 @@
           <t>https://open.spotify.com/track/380uhGcuknAGIFsA5kq91O?si=8bee50535f4e400f</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-07-01</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pujya Bhaishree Rameshbhai Ojha</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2010 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Namah Shivay - Dhun</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>52,451</t>
         </is>
       </c>
     </row>
@@ -4503,27 +4654,28 @@
           <t>https://open.spotify.com/track/0MfuNbRCDucCgwu9jR5ydM?si=e0ebecc229af4e59</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Biswajit Mahapatra</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Aura Transmedia</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
+        <is>
+          <t>Om Namah Shivaya</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -4535,29 +4687,30 @@
           <t>https://open.spotify.com/track/1kFow6FLgN6SjgOW3e6e93?si=6f13643cf771443c</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Chorus</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Tandav - Ravan Krut Shiv Tandav Stotra - Jata Katah Sambrhmam</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>26,577</t>
         </is>
       </c>
     </row>
@@ -4567,29 +4720,30 @@
           <t>https://open.spotify.com/track/0CakLfXCxDwlGgnHhmjoRQ?si=e1dc28f8ed4b48d6</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Deepanshu Jain</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jai Shivay Shankara</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1,007</t>
         </is>
       </c>
     </row>
@@ -4599,29 +4753,30 @@
           <t>https://open.spotify.com/track/743wKSRnVnIKU841RsY6ZN?si=643d9ae12a0c41fc</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Himani Kapoor, digV, Sparsh Agrawal</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Himani Kapoor</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>SHIVAAY</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>20,765</t>
         </is>
       </c>
     </row>
@@ -4631,29 +4786,30 @@
           <t>https://open.spotify.com/track/5hFrYnZIbNBL70WmRG2T82?si=cfc9d2fd4e704319</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Neer Raahi, Kabeer Shukla, DJ Strings</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bholenath Ki Shaadi</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>4,447</t>
         </is>
       </c>
     </row>
@@ -4663,29 +4819,30 @@
           <t>https://open.spotify.com/track/0bfnHfG1K0NIk6PUSsGrYa?si=f21205f091b64878</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2011-03-01</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Guru Ji Mandar Khaladkar</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2011 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mahamritunjaya Mantra - 108 Times</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>17,431</t>
         </is>
       </c>
     </row>
@@ -4695,29 +4852,30 @@
           <t>https://open.spotify.com/track/6Aw0w67j0r8aibi0ZqmzMj?si=eea3ca670e4d47a4</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hansraj Raghuwanshi</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2022 Hansraj Raghuwanshi</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mujhe Shiv Se Nahi Shiv Mein Milna Hai</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>3,700,439</t>
         </is>
       </c>
     </row>
@@ -4727,29 +4885,30 @@
           <t>https://open.spotify.com/track/77x2S5ZzBcxY1AzWl69stk?si=d61a1bb4f14642b5</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-06-15</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hansraj Raghuwanshi, Kartik Dev, Gaurav Dev</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Hansraj Raghuwanshi</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Parvati Bhole Shankar Se</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>576,895</t>
         </is>
       </c>
     </row>
@@ -4759,29 +4918,30 @@
           <t>https://open.spotify.com/track/1svMkzqw18zhuAqaOFggz1?si=ee72314719da4bc6</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1982-11-01</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hari Om Sharan</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1982 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Bhola Bhandari - Vandan</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>15,753</t>
         </is>
       </c>
     </row>
@@ -4791,27 +4951,28 @@
           <t>https://open.spotify.com/track/18T0VysZ4l35yVyBCbf7XU?si=1082056928014772</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1977-11-01</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hari Om Sharan</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1977 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
+        <is>
+          <t>Shloka - Shivji</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -4823,29 +4984,30 @@
           <t>https://open.spotify.com/track/35qmXILza9jqRUjlDy1x7o?si=ac9640c441cf47fd</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1980-06-30</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hari Om Sharan</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1980 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jai Bhola Bhandari Shivhar</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>23,500</t>
         </is>
       </c>
     </row>
@@ -4855,29 +5017,30 @@
           <t>https://open.spotify.com/track/5ogDkp4e72frgC97mB32OA?si=e53e4dd26a91468e</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2002-04-03</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hari Om Sharan</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2002 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Samapti</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>182,164</t>
         </is>
       </c>
     </row>
@@ -4887,29 +5050,30 @@
           <t>https://open.spotify.com/track/4CFNoymsL4UAFSPYBmix8r?si=38773e63a2974f0b</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1982-01-11</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hari Om Sharan</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1982 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Jai Shiv Shakti Hare - Aarti</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>38,674</t>
         </is>
       </c>
     </row>
@@ -4919,29 +5083,30 @@
           <t>https://open.spotify.com/track/05x5clN4BjOurbnQMasWL8?si=e80b3dbb58f844ee</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1955-01-01</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hemant Kumar, S. D. Burman</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1955 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>O Shivji Bihane Chale Palki Part - 1</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>51,819</t>
         </is>
       </c>
     </row>
@@ -4951,29 +5116,30 @@
           <t>https://open.spotify.com/track/6CW9TBHLS8M9pkCymR9TqM?si=95bbb1674d7a4335</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2003-11-01</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jagjit Singh</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2003 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Har Har Mahadev</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>627,323</t>
         </is>
       </c>
     </row>
@@ -4983,29 +5149,30 @@
           <t>https://open.spotify.com/track/6Md8NvoVMtwbNAI1JpDFG4?si=713f5c9d3a0a41aa</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2003-11-01</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jagjit Singh</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2003 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Namah Shivay - Dhun</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>275,450</t>
         </is>
       </c>
     </row>
@@ -5015,29 +5182,30 @@
           <t>https://open.spotify.com/track/1STOBwB6QFBoHjjzGwVbPR?si=cc6abec5d3a34cfb</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2003-11-01</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jagjit Singh</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2003 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Shivay Hari Om Shivay - Dhun</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>371,980</t>
         </is>
       </c>
     </row>
@@ -5047,29 +5215,30 @@
           <t>https://open.spotify.com/track/3hBydZtT6FM5CnhAgiuT8g?si=75071a625d8845eb</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2012-01-01</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jagjit Singh</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2012 Virgin Records (India) Pvt Ltd</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Namah Shivay</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>78,478</t>
         </is>
       </c>
     </row>
@@ -5079,29 +5248,30 @@
           <t>https://open.spotify.com/track/2khrJ82xi6KPPJby8RrZU1?si=a4460476a5b742b0</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2003-01-06</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jagjit Singh</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2003 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om - Meditation With Jagjit Singh Part - 1</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1,460</t>
         </is>
       </c>
     </row>
@@ -5111,29 +5281,30 @@
           <t>https://open.spotify.com/track/7f7iwlCuuGKwpZn8yoeF9L?si=3e23241422b24824</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Kailash Kher</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2021 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Shambho</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>308,664</t>
         </is>
       </c>
     </row>
@@ -5143,29 +5314,30 @@
           <t>https://open.spotify.com/track/5ruxeTHkBhAGFu39fSH2d8?si=0cea0a20239b443c</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1974-11-23</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Lata Mangeshkar, Kishore Kumar</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1974 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Jai Bholenath Jai Ho Prabhu</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>42,593</t>
         </is>
       </c>
     </row>
@@ -5175,29 +5347,30 @@
           <t>https://open.spotify.com/track/0g02oENnAC1Y5gAbGJ8qHF?si=7fedb3ac0b744e43</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-06-28</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Krishna Chaturvedi, Pankaj VRK</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Pankaj VRK</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Door Na Hona Shambhu</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>7,274,595</t>
         </is>
       </c>
     </row>
@@ -5207,29 +5380,30 @@
           <t>https://open.spotify.com/track/46jBImncXDFltIi0IKHBkZ?si=2ecfbf8e0bc04094</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1978-03-22</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Lata Mangeshkar</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1978 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Satyam Shivam Sundaram - Part 2</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1,470,390</t>
         </is>
       </c>
     </row>
@@ -5239,29 +5413,30 @@
           <t>https://open.spotify.com/track/05OVjjjYs6DWxpJnTiwtyy?si=eddc413e42aa4160</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1984-12-01</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Lata Mangeshkar</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1984 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Om Namah Shivaye</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>66,018</t>
         </is>
       </c>
     </row>
@@ -5271,29 +5446,30 @@
           <t>https://open.spotify.com/track/5JmoIS0FzSS4Y6AeZXTYxH?si=c2344f15472e4676</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1976-12-31</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mahendra Kapoor, Kalyanji-Anandji</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1976 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>O Shankar Mere Kab Honge Darshan - Part - 1</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>40,227</t>
         </is>
       </c>
     </row>
@@ -5303,27 +5479,28 @@
           <t>https://open.spotify.com/track/1dXPGYjtFXGXVnHYNO0OFp?si=f5e314858f7e44cd</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pooja Anita Das</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Pooja Anita Das</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
+        <is>
+          <t>SURRENDER TO SHIVA</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -5335,27 +5512,28 @@
           <t>https://open.spotify.com/track/0mFYFHpqZrbO1MDBMEetP8?si=fa8c9eb01c5b4ecf</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pravin Heera</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Pravin Heera</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
+        <is>
+          <t>Satya Shambhoo Sundaram</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -5367,29 +5545,30 @@
           <t>https://open.spotify.com/track/3qb6KtCWBGZHEXpYlNY1zb?si=e8f9092af2b54339</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-07-01</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pujya Bhaishree Rameshbhai Ojha</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2010 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shree Natraja Stuti</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>374,854</t>
         </is>
       </c>
     </row>
@@ -5399,29 +5578,30 @@
           <t>https://open.spotify.com/track/5tUx36eylVqKfZVOpxBCE3?si=186deeac1ddf430f</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-07-01</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pujya Bhaishree Rameshbhai Ojha</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2010 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shivohm Shivohm</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>351,213</t>
         </is>
       </c>
     </row>
@@ -5431,29 +5611,30 @@
           <t>https://open.spotify.com/track/5oWmAzGWRkVGrKyUcZ4fEo?si=d34d6b05fe524915</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-07-01</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Pujya Bhaishree Rameshbhai Ojha</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2010 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Ved Sharshivestave</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>546,247</t>
         </is>
       </c>
     </row>
@@ -5463,27 +5644,28 @@
           <t>https://open.spotify.com/track/05RR5nvwX2VYpcH2GTFvyq?si=bcc59a9d57874995</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>KNOJIA, Reshabh Chhabra</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 KNOJIA</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
+        <is>
+          <t>Kailashpati</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -5495,29 +5677,30 @@
           <t>https://open.spotify.com/track/5TcM0sxlfVo1LJkqYrMFS4?si=1d18150964df471c</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-08-24</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rohit Shyam Raut</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Rohit Shyam Raut</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>DEV BHOOMI</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1,157</t>
         </is>
       </c>
     </row>
@@ -5527,27 +5710,28 @@
           <t>https://open.spotify.com/track/4YRi17Bwn5QYnuTNXTIb0x?si=2d43db97ddfa4440</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Rupesh Mishra</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2020 Futureland Records</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
+        <is>
+          <t>Mahamrityunjaya Mantra</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -5559,29 +5743,30 @@
           <t>https://open.spotify.com/track/47V2nBG12kUus366l5EcyG?si=6e09bffd3e114adc</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2005-06-30</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Suresh Wadkar, Sadhana Sargam</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2005 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiva Gayatri</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>4,338</t>
         </is>
       </c>
     </row>
@@ -5591,29 +5776,30 @@
           <t>https://open.spotify.com/track/2y99W4bo9Vz5QTeAPd5aUN?si=1a34a1b97f3f4411</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sawai Bhatt, Aditi Negi</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Gem Tunes Devotional</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bolo Har Har Bam Bam</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>14,894</t>
         </is>
       </c>
     </row>
@@ -5623,29 +5809,30 @@
           <t>https://open.spotify.com/track/6sDH8enCCCO3pAn9uajSXy?si=4046a9c453d8443e</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shankar Mahadevan</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiva Aarti - Sheesh Gang Ardhaang Parvati</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>6,739</t>
         </is>
       </c>
     </row>
@@ -5655,29 +5842,30 @@
           <t>https://open.spotify.com/track/5spSqyAKdgcxtpIhJxIefW?si=52538a829d704a6a</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-01-10</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Siddharth Mohan</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2015 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shiv Kailasho Ke</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>405,413</t>
         </is>
       </c>
     </row>
@@ -5687,29 +5875,30 @@
           <t>https://open.spotify.com/track/5cjzqJLdTP7zFyP7CfEhxG?si=f6d9e1b7a5364bde</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2015-01-10</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Siddharth Mohan</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2015 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Shivo Hum</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>209,010</t>
         </is>
       </c>
     </row>
@@ -5719,29 +5908,30 @@
           <t>https://open.spotify.com/track/1If0DP8IDrY52MkdYz48zx?si=23d2bf4f618f45f8</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2010-08-01</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Sumeet Tappoo</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2010 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Mahamrityunjaya Mantra</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>15,689</t>
         </is>
       </c>
     </row>
@@ -5751,27 +5941,28 @@
           <t>https://open.spotify.com/track/1xcDEJg0GV6Jic48BCBL8O?si=d1f7afab1d924329</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Tanu Srivastava</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Songdew</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
+        <is>
+          <t>Mai Shiv Ki</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -5783,27 +5974,28 @@
           <t>https://open.spotify.com/track/2lrAGMS5sCQBdZH9GRR9MK?si=325c9ca6a8164e30</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Tripti Shakya</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Tripti Shakya Official</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
+        <is>
+          <t>Aayi Shubh Pavan Shivratri</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -5815,29 +6007,30 @@
           <t>https://open.spotify.com/track/0ksT14Gz2Gx1QjJbpwd6RQ?si=dc3359a4699f4313</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2003-12-01</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Udit Narayan</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2003 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Har Har Mahadev Shiv Shankar Tripurari</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>8,822</t>
         </is>
       </c>
     </row>
@@ -5847,29 +6040,30 @@
           <t>https://open.spotify.com/track/2ql0cjIHYSfkamFuOrqecY?si=71661a30d09d453b</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>1997-01-01</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Udit Narayan, Kavita Krishnamurthy, Shankar Mahadevan</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 1997 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Bam Bam Bhole</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>27,779</t>
         </is>
       </c>
     </row>
@@ -5879,27 +6073,28 @@
           <t>https://open.spotify.com/track/4pCfpzJIhlpFE9JbYSMrCy?si=012cd112ea7f4289</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Utkarsh Sharma</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2023 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
+        <is>
+          <t>Damru Wale</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -5911,27 +6106,28 @@
           <t>https://open.spotify.com/track/6Otn77z2e05KknoMHUG5kq?si=d4b04b38220e41e4</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Vyom Singh Rajput, Rahul Mehra</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>© 2024 Vyom Singh Rajput</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
+        <is>
+          <t>O Re Shiva</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>None</t>
         </is>
